--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf2-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf2-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Sdc3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H2">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I2">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J2">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.0270995</v>
+        <v>35.18694</v>
       </c>
       <c r="N2">
-        <v>60.054199</v>
+        <v>70.37388</v>
       </c>
       <c r="O2">
-        <v>0.1342326156631674</v>
+        <v>0.1785572969025014</v>
       </c>
       <c r="P2">
-        <v>0.09453939633554115</v>
+        <v>0.1282643028201015</v>
       </c>
       <c r="Q2">
-        <v>402.9599719477283</v>
+        <v>49.14373419018</v>
       </c>
       <c r="R2">
-        <v>2417.75983168637</v>
+        <v>196.57493676072</v>
       </c>
       <c r="S2">
-        <v>0.09995509715838413</v>
+        <v>0.01254844119666733</v>
       </c>
       <c r="T2">
-        <v>0.07463157454164353</v>
+        <v>0.006669553074331406</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H3">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I3">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J3">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>16.078605</v>
       </c>
       <c r="O3">
-        <v>0.02395917067475312</v>
+        <v>0.02719713854783473</v>
       </c>
       <c r="P3">
-        <v>0.02531149588087277</v>
+        <v>0.02930506404712654</v>
       </c>
       <c r="Q3">
-        <v>71.92429869068334</v>
+        <v>7.485378479145</v>
       </c>
       <c r="R3">
-        <v>647.31868821615</v>
+        <v>44.91227087487</v>
       </c>
       <c r="S3">
-        <v>0.01784097866824468</v>
+        <v>0.001911328742680677</v>
       </c>
       <c r="T3">
-        <v>0.01998147719168051</v>
+        <v>0.001523819766775831</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H4">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I4">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J4">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.82578633333333</v>
+        <v>70.59161999999999</v>
       </c>
       <c r="N4">
-        <v>191.477359</v>
+        <v>211.77486</v>
       </c>
       <c r="O4">
-        <v>0.2853256687773582</v>
+        <v>0.3582195226742806</v>
       </c>
       <c r="P4">
-        <v>0.3014302785352894</v>
+        <v>0.3859834752997077</v>
       </c>
       <c r="Q4">
-        <v>856.5341807463523</v>
+        <v>98.59157429813999</v>
       </c>
       <c r="R4">
-        <v>7708.807626717171</v>
+        <v>591.54944578884</v>
       </c>
       <c r="S4">
-        <v>0.2124651658132548</v>
+        <v>0.0251745332940996</v>
       </c>
       <c r="T4">
-        <v>0.2379559969028234</v>
+        <v>0.02007056692879664</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H5">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I5">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J5">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.827090500000001</v>
+        <v>7.337415</v>
       </c>
       <c r="N5">
-        <v>11.654181</v>
+        <v>14.67483</v>
       </c>
       <c r="O5">
-        <v>0.0260493225301696</v>
+        <v>0.03723395636710288</v>
       </c>
       <c r="P5">
-        <v>0.018346414653289</v>
+        <v>0.0267465263952124</v>
       </c>
       <c r="Q5">
-        <v>78.19883583550501</v>
+        <v>10.247778647505</v>
       </c>
       <c r="R5">
-        <v>469.19301501303</v>
+        <v>40.99111459002</v>
       </c>
       <c r="S5">
-        <v>0.01939739124913471</v>
+        <v>0.002616684504621453</v>
       </c>
       <c r="T5">
-        <v>0.01448308182452497</v>
+        <v>0.001390779612290679</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H6">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I6">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J6">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.286359</v>
+        <v>15.36873766666667</v>
       </c>
       <c r="N6">
-        <v>75.859077</v>
+        <v>46.106213</v>
       </c>
       <c r="O6">
-        <v>0.1130396930002472</v>
+        <v>0.07798917025929666</v>
       </c>
       <c r="P6">
-        <v>0.1194199817093778</v>
+        <v>0.0840337532351506</v>
       </c>
       <c r="Q6">
-        <v>339.3398191290567</v>
+        <v>21.464701355937</v>
       </c>
       <c r="R6">
-        <v>3054.05837216151</v>
+        <v>128.788208135622</v>
       </c>
       <c r="S6">
-        <v>0.08417397992859021</v>
+        <v>0.005480831833548836</v>
       </c>
       <c r="T6">
-        <v>0.09427288106508218</v>
+        <v>0.00436963024718729</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H7">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I7">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J7">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>93.36864199999998</v>
+        <v>63.21821133333334</v>
       </c>
       <c r="N7">
-        <v>280.105926</v>
+        <v>189.654634</v>
       </c>
       <c r="O7">
-        <v>0.4173935293543045</v>
+        <v>0.3208029152489838</v>
       </c>
       <c r="P7">
-        <v>0.4409524328856299</v>
+        <v>0.3456668782027013</v>
       </c>
       <c r="Q7">
-        <v>1252.995660174153</v>
+        <v>88.293525204066</v>
       </c>
       <c r="R7">
-        <v>11276.96094156738</v>
+        <v>529.761151224396</v>
       </c>
       <c r="S7">
-        <v>0.3108082977730294</v>
+        <v>0.02254501265170604</v>
       </c>
       <c r="T7">
-        <v>0.3480979955427444</v>
+        <v>0.0179741638127086</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H8">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I8">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J8">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.0270995</v>
+        <v>35.18694</v>
       </c>
       <c r="N8">
-        <v>60.054199</v>
+        <v>70.37388</v>
       </c>
       <c r="O8">
-        <v>0.1342326156631674</v>
+        <v>0.1785572969025014</v>
       </c>
       <c r="P8">
-        <v>0.09453939633554115</v>
+        <v>0.1282643028201015</v>
       </c>
       <c r="Q8">
-        <v>3.510328076080666</v>
+        <v>472.2043950774</v>
       </c>
       <c r="R8">
-        <v>21.061968456484</v>
+        <v>2833.2263704644</v>
       </c>
       <c r="S8">
-        <v>0.0008707445114373839</v>
+        <v>0.1205734399731604</v>
       </c>
       <c r="T8">
-        <v>0.0006501422714750993</v>
+        <v>0.09612799047932115</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H9">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I9">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J9">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>16.078605</v>
       </c>
       <c r="O9">
-        <v>0.02395917067475312</v>
+        <v>0.02719713854783473</v>
       </c>
       <c r="P9">
-        <v>0.02531149588087277</v>
+        <v>0.02930506404712654</v>
       </c>
       <c r="Q9">
-        <v>0.6265582256866666</v>
+        <v>71.92429869068333</v>
       </c>
       <c r="R9">
-        <v>5.639024031179999</v>
+        <v>647.3186882161499</v>
       </c>
       <c r="S9">
-        <v>0.0001554191301463053</v>
+        <v>0.01836526767052072</v>
       </c>
       <c r="T9">
-        <v>0.0001740657764305688</v>
+        <v>0.02196275078709268</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H10">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I10">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J10">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>63.82578633333333</v>
+        <v>70.59161999999999</v>
       </c>
       <c r="N10">
-        <v>191.477359</v>
+        <v>211.77486</v>
       </c>
       <c r="O10">
-        <v>0.2853256687773582</v>
+        <v>0.3582195226742806</v>
       </c>
       <c r="P10">
-        <v>0.3014302785352894</v>
+        <v>0.3859834752997077</v>
       </c>
       <c r="Q10">
-        <v>7.461574826560444</v>
+        <v>947.3308341001998</v>
       </c>
       <c r="R10">
-        <v>67.154173439044</v>
+        <v>8525.977506901798</v>
       </c>
       <c r="S10">
-        <v>0.001850859858706139</v>
+        <v>0.2418929994105242</v>
       </c>
       <c r="T10">
-        <v>0.002072919582464384</v>
+        <v>0.2892762446214358</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H11">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I11">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J11">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.827090500000001</v>
+        <v>7.337415</v>
       </c>
       <c r="N11">
-        <v>11.654181</v>
+        <v>14.67483</v>
       </c>
       <c r="O11">
-        <v>0.0260493225301696</v>
+        <v>0.03723395636710288</v>
       </c>
       <c r="P11">
-        <v>0.018346414653289</v>
+        <v>0.0267465263952124</v>
       </c>
       <c r="Q11">
-        <v>0.681217957266</v>
+        <v>98.46720435214999</v>
       </c>
       <c r="R11">
-        <v>4.087307743596</v>
+        <v>590.8032261128999</v>
       </c>
       <c r="S11">
-        <v>0.0001689775954059073</v>
+        <v>0.02514277646935672</v>
       </c>
       <c r="T11">
-        <v>0.0001261672927736817</v>
+        <v>0.02004524858549303</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H12">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I12">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J12">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.286359</v>
+        <v>15.36873766666667</v>
       </c>
       <c r="N12">
-        <v>75.859077</v>
+        <v>46.106213</v>
       </c>
       <c r="O12">
-        <v>0.1130396930002472</v>
+        <v>0.07798917025929666</v>
       </c>
       <c r="P12">
-        <v>0.1194199817093778</v>
+        <v>0.0840337532351506</v>
       </c>
       <c r="Q12">
-        <v>2.956110227681333</v>
+        <v>206.2465640090211</v>
       </c>
       <c r="R12">
-        <v>26.604992049132</v>
+        <v>1856.21907608119</v>
       </c>
       <c r="S12">
-        <v>0.0007332695691598618</v>
+        <v>0.0526633338538413</v>
       </c>
       <c r="T12">
-        <v>0.0008212446998549504</v>
+        <v>0.06297929863042301</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H13">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I13">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J13">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>93.36864199999998</v>
+        <v>63.21821133333334</v>
       </c>
       <c r="N13">
-        <v>280.105926</v>
+        <v>189.654634</v>
       </c>
       <c r="O13">
-        <v>0.4173935293543045</v>
+        <v>0.3208029152489838</v>
       </c>
       <c r="P13">
-        <v>0.4409524328856299</v>
+        <v>0.3456668782027013</v>
       </c>
       <c r="Q13">
-        <v>10.91529221589066</v>
+        <v>848.3805991806022</v>
       </c>
       <c r="R13">
-        <v>98.23762994301597</v>
+        <v>7635.42539262542</v>
       </c>
       <c r="S13">
-        <v>0.002707561966211954</v>
+        <v>0.2166268851286937</v>
       </c>
       <c r="T13">
-        <v>0.003032405826997643</v>
+        <v>0.2590608738854692</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H14">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I14">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J14">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.0270995</v>
+        <v>35.18694</v>
       </c>
       <c r="N14">
-        <v>60.054199</v>
+        <v>70.37388</v>
       </c>
       <c r="O14">
-        <v>0.1342326156631674</v>
+        <v>0.1785572969025014</v>
       </c>
       <c r="P14">
-        <v>0.09453939633554115</v>
+        <v>0.1282643028201015</v>
       </c>
       <c r="Q14">
-        <v>92.09390988463674</v>
+        <v>10.77522626232</v>
       </c>
       <c r="R14">
-        <v>368.375639538547</v>
+        <v>64.65135757392001</v>
       </c>
       <c r="S14">
-        <v>0.02284409457773249</v>
+        <v>0.002751363838373649</v>
       </c>
       <c r="T14">
-        <v>0.01137104423741331</v>
+        <v>0.002193543428131473</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H15">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I15">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J15">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>16.078605</v>
       </c>
       <c r="O15">
-        <v>0.02395917067475312</v>
+        <v>0.02719713854783473</v>
       </c>
       <c r="P15">
-        <v>0.02531149588087277</v>
+        <v>0.02930506404712654</v>
       </c>
       <c r="Q15">
-        <v>16.4378358726775</v>
+        <v>1.64123968398</v>
       </c>
       <c r="R15">
-        <v>98.62701523606499</v>
+        <v>14.77115715582</v>
       </c>
       <c r="S15">
-        <v>0.004077440927408508</v>
+        <v>0.0004190768162704093</v>
       </c>
       <c r="T15">
-        <v>0.003044425398645228</v>
+        <v>0.0005011677390996751</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H16">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I16">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J16">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>63.82578633333333</v>
+        <v>70.59161999999999</v>
       </c>
       <c r="N16">
-        <v>191.477359</v>
+        <v>211.77486</v>
       </c>
       <c r="O16">
-        <v>0.2853256687773582</v>
+        <v>0.3582195226742806</v>
       </c>
       <c r="P16">
-        <v>0.3014302785352894</v>
+        <v>0.3859834752997077</v>
       </c>
       <c r="Q16">
-        <v>195.7553780676712</v>
+        <v>21.61713060936</v>
       </c>
       <c r="R16">
-        <v>1174.532268406027</v>
+        <v>194.55417548424</v>
       </c>
       <c r="S16">
-        <v>0.04855754714160163</v>
+        <v>0.00551975336759076</v>
       </c>
       <c r="T16">
-        <v>0.03625554175907117</v>
+        <v>0.006600991055153741</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H17">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I17">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J17">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.827090500000001</v>
+        <v>7.337415</v>
       </c>
       <c r="N17">
-        <v>11.654181</v>
+        <v>14.67483</v>
       </c>
       <c r="O17">
-        <v>0.0260493225301696</v>
+        <v>0.03723395636710288</v>
       </c>
       <c r="P17">
-        <v>0.018346414653289</v>
+        <v>0.0267465263952124</v>
       </c>
       <c r="Q17">
-        <v>17.87184098139825</v>
+        <v>2.24692192062</v>
       </c>
       <c r="R17">
-        <v>71.487363925593</v>
+        <v>13.48153152372</v>
       </c>
       <c r="S17">
-        <v>0.004433149012444793</v>
+        <v>0.0005737327058886163</v>
       </c>
       <c r="T17">
-        <v>0.002206676800431919</v>
+        <v>0.0004574122800312643</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H18">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I18">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J18">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.286359</v>
+        <v>15.36873766666667</v>
       </c>
       <c r="N18">
-        <v>75.859077</v>
+        <v>46.106213</v>
       </c>
       <c r="O18">
-        <v>0.1130396930002472</v>
+        <v>0.07798917025929666</v>
       </c>
       <c r="P18">
-        <v>0.1194199817093778</v>
+        <v>0.0840337532351506</v>
       </c>
       <c r="Q18">
-        <v>77.5539331415135</v>
+        <v>4.706337798188</v>
       </c>
       <c r="R18">
-        <v>465.323598849081</v>
+        <v>42.357040183692</v>
       </c>
       <c r="S18">
-        <v>0.01923742173374079</v>
+        <v>0.001201723965127905</v>
       </c>
       <c r="T18">
-        <v>0.01436364042381687</v>
+        <v>0.00143712383802314</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H19">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I19">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J19">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>93.36864199999998</v>
+        <v>63.21821133333334</v>
       </c>
       <c r="N19">
-        <v>280.105926</v>
+        <v>189.654634</v>
       </c>
       <c r="O19">
-        <v>0.4173935293543045</v>
+        <v>0.3208029152489838</v>
       </c>
       <c r="P19">
-        <v>0.4409524328856299</v>
+        <v>0.3456668782027013</v>
       </c>
       <c r="Q19">
-        <v>286.3640992830129</v>
+        <v>19.359186420184</v>
       </c>
       <c r="R19">
-        <v>1718.184595698078</v>
+        <v>174.232677781656</v>
       </c>
       <c r="S19">
-        <v>0.07103323744081395</v>
+        <v>0.004943206217681803</v>
       </c>
       <c r="T19">
-        <v>0.0530370386874633</v>
+        <v>0.005911506883312102</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H20">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I20">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J20">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>30.0270995</v>
+        <v>35.18694</v>
       </c>
       <c r="N20">
-        <v>60.054199</v>
+        <v>70.37388</v>
       </c>
       <c r="O20">
-        <v>0.1342326156631674</v>
+        <v>0.1785572969025014</v>
       </c>
       <c r="P20">
-        <v>0.09453939633554115</v>
+        <v>0.1282643028201015</v>
       </c>
       <c r="Q20">
-        <v>25.85713610210333</v>
+        <v>158.52212605854</v>
       </c>
       <c r="R20">
-        <v>155.14281661262</v>
+        <v>634.08850423416</v>
       </c>
       <c r="S20">
-        <v>0.006413918828787706</v>
+        <v>0.04047729807259461</v>
       </c>
       <c r="T20">
-        <v>0.004788958990417723</v>
+        <v>0.02151386642927416</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H21">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I21">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J21">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>16.078605</v>
       </c>
       <c r="O21">
-        <v>0.02395917067475312</v>
+        <v>0.02719713854783473</v>
       </c>
       <c r="P21">
-        <v>0.02531149588087277</v>
+        <v>0.02930506404712654</v>
       </c>
       <c r="Q21">
-        <v>4.615238509433333</v>
+        <v>24.145460869435</v>
       </c>
       <c r="R21">
-        <v>41.5371465849</v>
+        <v>144.87276521661</v>
       </c>
       <c r="S21">
-        <v>0.00114481994673001</v>
+        <v>0.006165341337595805</v>
       </c>
       <c r="T21">
-        <v>0.001282171459286724</v>
+        <v>0.004915360078754498</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H22">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I22">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J22">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>63.82578633333333</v>
+        <v>70.59161999999999</v>
       </c>
       <c r="N22">
-        <v>191.477359</v>
+        <v>211.77486</v>
       </c>
       <c r="O22">
-        <v>0.2853256687773582</v>
+        <v>0.3582195226742806</v>
       </c>
       <c r="P22">
-        <v>0.3014302785352894</v>
+        <v>0.3859834752997077</v>
       </c>
       <c r="Q22">
-        <v>54.96208663260222</v>
+        <v>318.02520151842</v>
       </c>
       <c r="R22">
-        <v>494.65877969342</v>
+        <v>1908.15120911052</v>
       </c>
       <c r="S22">
-        <v>0.01363346508794656</v>
+        <v>0.08120507336435992</v>
       </c>
       <c r="T22">
-        <v>0.0152691607766593</v>
+        <v>0.06474129394483059</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H23">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I23">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J23">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.827090500000001</v>
+        <v>7.337415</v>
       </c>
       <c r="N23">
-        <v>11.654181</v>
+        <v>14.67483</v>
       </c>
       <c r="O23">
-        <v>0.0260493225301696</v>
+        <v>0.03723395636710288</v>
       </c>
       <c r="P23">
-        <v>0.018346414653289</v>
+        <v>0.0267465263952124</v>
       </c>
       <c r="Q23">
-        <v>5.017863018630001</v>
+        <v>33.056089150515</v>
       </c>
       <c r="R23">
-        <v>30.10717811178001</v>
+        <v>132.22435660206</v>
       </c>
       <c r="S23">
-        <v>0.00124469183162363</v>
+        <v>0.008440595687983291</v>
       </c>
       <c r="T23">
-        <v>0.0009293504168776844</v>
+        <v>0.004486214665047676</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H24">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I24">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J24">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>25.286359</v>
+        <v>15.36873766666667</v>
       </c>
       <c r="N24">
-        <v>75.859077</v>
+        <v>46.106213</v>
       </c>
       <c r="O24">
-        <v>0.1130396930002472</v>
+        <v>0.07798917025929666</v>
       </c>
       <c r="P24">
-        <v>0.1194199817093778</v>
+        <v>0.0840337532351506</v>
       </c>
       <c r="Q24">
-        <v>21.77475803780667</v>
+        <v>69.23833018034433</v>
       </c>
       <c r="R24">
-        <v>195.97282234026</v>
+        <v>415.429981082066</v>
       </c>
       <c r="S24">
-        <v>0.005401276074020586</v>
+        <v>0.01767942809272926</v>
       </c>
       <c r="T24">
-        <v>0.006049302377739487</v>
+        <v>0.01409504361620624</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H25">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I25">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J25">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>93.36864199999998</v>
+        <v>63.21821133333334</v>
       </c>
       <c r="N25">
-        <v>280.105926</v>
+        <v>189.654634</v>
       </c>
       <c r="O25">
-        <v>0.4173935293543045</v>
+        <v>0.3208029152489838</v>
       </c>
       <c r="P25">
-        <v>0.4409524328856299</v>
+        <v>0.3456668782027013</v>
       </c>
       <c r="Q25">
-        <v>80.40222745665332</v>
+        <v>284.8069558244647</v>
       </c>
       <c r="R25">
-        <v>723.6200471098799</v>
+        <v>1708.841734946788</v>
       </c>
       <c r="S25">
-        <v>0.01994394733138106</v>
+        <v>0.07272307236024536</v>
       </c>
       <c r="T25">
-        <v>0.02233675271544262</v>
+        <v>0.05797896127894153</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H26">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I26">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J26">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>30.0270995</v>
+        <v>35.18694</v>
       </c>
       <c r="N26">
-        <v>60.054199</v>
+        <v>70.37388</v>
       </c>
       <c r="O26">
-        <v>0.1342326156631674</v>
+        <v>0.1785572969025014</v>
       </c>
       <c r="P26">
-        <v>0.09453939633554115</v>
+        <v>0.1282643028201015</v>
       </c>
       <c r="Q26">
-        <v>16.72535465636233</v>
+        <v>4.59540263502</v>
       </c>
       <c r="R26">
-        <v>100.352127938174</v>
+        <v>27.57241581012</v>
       </c>
       <c r="S26">
-        <v>0.004148760586825711</v>
+        <v>0.001173397599730655</v>
       </c>
       <c r="T26">
-        <v>0.003097676294591491</v>
+        <v>0.0009354991722926305</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H27">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I27">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J27">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>16.078605</v>
       </c>
       <c r="O27">
-        <v>0.02395917067475312</v>
+        <v>0.02719713854783473</v>
       </c>
       <c r="P27">
-        <v>0.02531149588087277</v>
+        <v>0.02930506404712654</v>
       </c>
       <c r="Q27">
-        <v>2.985307444303333</v>
+        <v>0.6999534844883334</v>
       </c>
       <c r="R27">
-        <v>26.86776699873</v>
+        <v>6.299581360395</v>
       </c>
       <c r="S27">
-        <v>0.0007405120022236226</v>
+        <v>0.0001787272637141064</v>
       </c>
       <c r="T27">
-        <v>0.0008293560548297417</v>
+        <v>0.0002137372796429606</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H28">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I28">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J28">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>63.82578633333333</v>
+        <v>70.59161999999999</v>
       </c>
       <c r="N28">
-        <v>191.477359</v>
+        <v>211.77486</v>
       </c>
       <c r="O28">
-        <v>0.2853256687773582</v>
+        <v>0.3582195226742806</v>
       </c>
       <c r="P28">
-        <v>0.3014302785352894</v>
+        <v>0.3859834752997077</v>
       </c>
       <c r="Q28">
-        <v>35.55151614448155</v>
+        <v>9.219242041459999</v>
       </c>
       <c r="R28">
-        <v>319.963645300334</v>
+        <v>82.97317837314</v>
       </c>
       <c r="S28">
-        <v>0.008818630875849078</v>
+        <v>0.002354056291030096</v>
       </c>
       <c r="T28">
-        <v>0.009876659514271179</v>
+        <v>0.002815180948419892</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H29">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I29">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J29">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>5.827090500000001</v>
+        <v>7.337415</v>
       </c>
       <c r="N29">
-        <v>11.654181</v>
+        <v>14.67483</v>
       </c>
       <c r="O29">
-        <v>0.0260493225301696</v>
+        <v>0.03723395636710288</v>
       </c>
       <c r="P29">
-        <v>0.018346414653289</v>
+        <v>0.0267465263952124</v>
       </c>
       <c r="Q29">
-        <v>3.245739909951</v>
+        <v>0.958263953195</v>
       </c>
       <c r="R29">
-        <v>19.474439459706</v>
+        <v>5.74958371917</v>
       </c>
       <c r="S29">
-        <v>0.0008051128415605552</v>
+        <v>0.0002446846798621223</v>
       </c>
       <c r="T29">
-        <v>0.0006011383186807398</v>
+        <v>0.0001950765158683174</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H30">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I30">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J30">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>25.286359</v>
+        <v>15.36873766666667</v>
       </c>
       <c r="N30">
-        <v>75.859077</v>
+        <v>46.106213</v>
       </c>
       <c r="O30">
-        <v>0.1130396930002472</v>
+        <v>0.07798917025929666</v>
       </c>
       <c r="P30">
-        <v>0.1194199817093778</v>
+        <v>0.0840337532351506</v>
       </c>
       <c r="Q30">
-        <v>14.08472111144467</v>
+        <v>2.007152016354111</v>
       </c>
       <c r="R30">
-        <v>126.762490003002</v>
+        <v>18.064368147187</v>
       </c>
       <c r="S30">
-        <v>0.003493745694735704</v>
+        <v>0.0005125094676876358</v>
       </c>
       <c r="T30">
-        <v>0.003912913142884324</v>
+        <v>0.0006129024589669877</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.391799</v>
+      </c>
+      <c r="I31">
+        <v>0.006571546613249707</v>
+      </c>
+      <c r="J31">
+        <v>0.007293527128937232</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>63.21821133333334</v>
+      </c>
+      <c r="N31">
+        <v>189.654634</v>
+      </c>
+      <c r="O31">
+        <v>0.3208029152489838</v>
+      </c>
+      <c r="P31">
+        <v>0.3456668782027013</v>
+      </c>
+      <c r="Q31">
+        <v>8.256277327396223</v>
+      </c>
+      <c r="R31">
+        <v>74.306495946566</v>
+      </c>
+      <c r="S31">
+        <v>0.002108171311225092</v>
+      </c>
+      <c r="T31">
+        <v>0.002521130753746444</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32">
+        <v>0.115013</v>
+      </c>
+      <c r="H32">
+        <v>0.345039</v>
+      </c>
+      <c r="I32">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J32">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>35.18694</v>
+      </c>
+      <c r="N32">
+        <v>70.37388</v>
+      </c>
+      <c r="O32">
+        <v>0.1785572969025014</v>
+      </c>
+      <c r="P32">
+        <v>0.1282643028201015</v>
+      </c>
+      <c r="Q32">
+        <v>4.04695553022</v>
+      </c>
+      <c r="R32">
+        <v>24.28173318132</v>
+      </c>
+      <c r="S32">
+        <v>0.0010333562219747</v>
+      </c>
+      <c r="T32">
+        <v>0.0008238502367506729</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.115013</v>
+      </c>
+      <c r="H33">
+        <v>0.345039</v>
+      </c>
+      <c r="I33">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J33">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>5.359535</v>
+      </c>
+      <c r="N33">
+        <v>16.078605</v>
+      </c>
+      <c r="O33">
+        <v>0.02719713854783473</v>
+      </c>
+      <c r="P33">
+        <v>0.02930506404712654</v>
+      </c>
+      <c r="Q33">
+        <v>0.616416198955</v>
+      </c>
+      <c r="R33">
+        <v>5.547745790594999</v>
+      </c>
+      <c r="S33">
+        <v>0.0001573967170530082</v>
+      </c>
+      <c r="T33">
+        <v>0.0001882283957609067</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.115013</v>
+      </c>
+      <c r="H34">
+        <v>0.345039</v>
+      </c>
+      <c r="I34">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J34">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>70.59161999999999</v>
+      </c>
+      <c r="N34">
+        <v>211.77486</v>
+      </c>
+      <c r="O34">
+        <v>0.3582195226742806</v>
+      </c>
+      <c r="P34">
+        <v>0.3859834752997077</v>
+      </c>
+      <c r="Q34">
+        <v>8.118953991059998</v>
+      </c>
+      <c r="R34">
+        <v>73.07058591953999</v>
+      </c>
+      <c r="S34">
+        <v>0.002073106946676059</v>
+      </c>
+      <c r="T34">
+        <v>0.002479197801071088</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.115013</v>
+      </c>
+      <c r="H35">
+        <v>0.345039</v>
+      </c>
+      <c r="I35">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J35">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>7.337415</v>
+      </c>
+      <c r="N35">
+        <v>14.67483</v>
+      </c>
+      <c r="O35">
+        <v>0.03723395636710288</v>
+      </c>
+      <c r="P35">
+        <v>0.0267465263952124</v>
+      </c>
+      <c r="Q35">
+        <v>0.8438981113949999</v>
+      </c>
+      <c r="R35">
+        <v>5.06338866837</v>
+      </c>
+      <c r="S35">
+        <v>0.0002154823193906743</v>
+      </c>
+      <c r="T35">
+        <v>0.0001717947364814314</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.5570086666666666</v>
-      </c>
-      <c r="H31">
-        <v>1.671026</v>
-      </c>
-      <c r="I31">
-        <v>0.03090724684406268</v>
-      </c>
-      <c r="J31">
-        <v>0.03276598343823939</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>93.36864199999998</v>
-      </c>
-      <c r="N31">
-        <v>280.105926</v>
-      </c>
-      <c r="O31">
-        <v>0.4173935293543045</v>
-      </c>
-      <c r="P31">
-        <v>0.4409524328856299</v>
-      </c>
-      <c r="Q31">
-        <v>52.00714278889732</v>
-      </c>
-      <c r="R31">
-        <v>468.0642851000759</v>
-      </c>
-      <c r="S31">
-        <v>0.01290048484286801</v>
-      </c>
-      <c r="T31">
-        <v>0.01444824011298191</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.115013</v>
+      </c>
+      <c r="H36">
+        <v>0.345039</v>
+      </c>
+      <c r="I36">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J36">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>15.36873766666667</v>
+      </c>
+      <c r="N36">
+        <v>46.106213</v>
+      </c>
+      <c r="O36">
+        <v>0.07798917025929666</v>
+      </c>
+      <c r="P36">
+        <v>0.0840337532351506</v>
+      </c>
+      <c r="Q36">
+        <v>1.767604625256333</v>
+      </c>
+      <c r="R36">
+        <v>15.908441627307</v>
+      </c>
+      <c r="S36">
+        <v>0.0004513430463617165</v>
+      </c>
+      <c r="T36">
+        <v>0.0005397544443439378</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.115013</v>
+      </c>
+      <c r="H37">
+        <v>0.345039</v>
+      </c>
+      <c r="I37">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J37">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>63.21821133333334</v>
+      </c>
+      <c r="N37">
+        <v>189.654634</v>
+      </c>
+      <c r="O37">
+        <v>0.3208029152489838</v>
+      </c>
+      <c r="P37">
+        <v>0.3456668782027013</v>
+      </c>
+      <c r="Q37">
+        <v>7.270916140080667</v>
+      </c>
+      <c r="R37">
+        <v>65.43824526072601</v>
+      </c>
+      <c r="S37">
+        <v>0.001856567579431787</v>
+      </c>
+      <c r="T37">
+        <v>0.002220241588523501</v>
       </c>
     </row>
   </sheetData>
